--- a/redirect_list.xlsx
+++ b/redirect_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,70 @@
   </si>
   <si>
     <t>rotom (fan rotom)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰蛋龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alola exeggutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴蝾螈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salamence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glaceon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leafeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sylveon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaporeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jolteon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flareon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,8 +185,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -131,12 +197,14 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -465,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -529,6 +597,94 @@
       </c>
       <c r="C5">
         <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/redirect_list.xlsx
+++ b/redirect_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,13 @@
   </si>
   <si>
     <t>flareon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡璞利亚斯</t>
+  </si>
+  <si>
+    <t>garchomp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +174,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,8 +213,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -533,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -685,6 +706,17 @@
       </c>
       <c r="C13">
         <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/redirect_list.xlsx
+++ b/redirect_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,22 @@
   </si>
   <si>
     <t>garchomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫脑大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alola persian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>megamega绿毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mega rayquaza</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +202,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,10 +237,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -554,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -717,6 +742,28 @@
       </c>
       <c r="C14" s="2">
         <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/redirect_list.xlsx
+++ b/redirect_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,22 @@
   </si>
   <si>
     <t>mega rayquaza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆河马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slowbro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级呆河马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mega slowbro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,6 +780,28 @@
       </c>
       <c r="C16">
         <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/redirect_list.xlsx
+++ b/redirect_list.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="9640" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$24</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +168,50 @@
   </si>
   <si>
     <t>mega slowbro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级暴蝾螈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mega salamence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registeel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regirock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regigigas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,8 +291,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,14 +308,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -595,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -619,189 +670,255 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>479</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>479</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>479</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>479</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>373</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>135</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>136</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>471</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>470</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>700</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2">
-        <v>445</v>
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>53</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>384</v>
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
